--- a/構成.xlsx
+++ b/構成.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C60291C-E436-4ADF-8563-07C5BB63DC6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43D003B-EE22-4A7E-9B66-CFD8CD5AAE60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>AccessButton</t>
     <phoneticPr fontId="2"/>
@@ -57,6 +57,11 @@
   </si>
   <si>
     <t>TreeViewVM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ConfigFile
+Model</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -142,17 +147,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -365,15 +370,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -426,13 +431,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>67</xdr:col>
+      <xdr:col>90</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
+      <xdr:col>95</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -896,13 +901,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -963,7 +968,7 @@
       <xdr:rowOff>83344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
@@ -985,7 +990,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="5667375" y="2250282"/>
-          <a:ext cx="2428875" cy="0"/>
+          <a:ext cx="1416844" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1015,11 +1020,11 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
@@ -1034,14 +1039,299 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="32" idx="2"/>
+          <a:stCxn id="17" idx="2"/>
           <a:endCxn id="25" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
+          <a:off x="5667375" y="3750469"/>
+          <a:ext cx="1416844" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="フローチャート: 磁気ディスク 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B1A97A-24DE-40D9-AF1F-DEE06912D414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9513094" y="2000250"/>
+          <a:ext cx="1012031" cy="500063"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18D50E1-0EAE-4F1B-9765-11EAB3405C36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="4"/>
+          <a:endCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="5667375" y="2250282"/>
-          <a:ext cx="2428875" cy="1500187"/>
+          <a:ext cx="1416844" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC2A9FA-187B-4A7C-8705-D7B2839BA394}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="4"/>
+          <a:endCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5667375" y="2917032"/>
+          <a:ext cx="1416844" cy="833437"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76BEA06-A356-4472-81AE-C594F7238B83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="4"/>
+          <a:endCxn id="17" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8096250" y="2917032"/>
+          <a:ext cx="2226469" cy="833437"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E888053-7B4E-4270-AD69-874281D15D14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="4"/>
+          <a:endCxn id="32" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8096250" y="2250282"/>
+          <a:ext cx="2226469" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1333,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G5:BT24"/>
+  <dimension ref="G5:CQ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BN15" sqref="BN15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BR23" sqref="BR23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -1346,188 +1636,212 @@
     <col min="18" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:72">
-      <c r="G5" s="4" t="s">
+    <row r="5" spans="7:95">
+      <c r="G5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="X5" s="3" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="X5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="7:72">
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
+    <row r="6" spans="7:95">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="7:72">
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
+    <row r="7" spans="7:95">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
     </row>
-    <row r="13" spans="7:72">
-      <c r="G13" s="5" t="s">
+    <row r="13" spans="7:95">
+      <c r="G13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="X13" s="3" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="X13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AO13" s="6" t="s">
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AZ13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="6"/>
-      <c r="BC13" s="6" t="s">
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="5"/>
+      <c r="BD13" s="5"/>
+      <c r="CM13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN13" s="5"/>
+      <c r="CO13" s="5"/>
+      <c r="CP13" s="5"/>
+      <c r="CQ13" s="5"/>
+    </row>
+    <row r="14" spans="7:95">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5"/>
+      <c r="CM14" s="5"/>
+      <c r="CN14" s="5"/>
+      <c r="CO14" s="5"/>
+      <c r="CP14" s="5"/>
+      <c r="CQ14" s="5"/>
+    </row>
+    <row r="15" spans="7:95">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="5"/>
+      <c r="CM15" s="5"/>
+      <c r="CN15" s="5"/>
+      <c r="CO15" s="5"/>
+      <c r="CP15" s="5"/>
+      <c r="CQ15" s="5"/>
+    </row>
+    <row r="17" spans="7:56">
+      <c r="AJ17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BD13" s="6"/>
-      <c r="BE13" s="6"/>
-      <c r="BF13" s="6"/>
-      <c r="BG13" s="6"/>
-      <c r="BP13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BQ13" s="6"/>
-      <c r="BR13" s="6"/>
-      <c r="BS13" s="6"/>
-      <c r="BT13" s="6"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
     </row>
-    <row r="14" spans="7:72">
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="BC14" s="6"/>
-      <c r="BD14" s="6"/>
-      <c r="BE14" s="6"/>
-      <c r="BF14" s="6"/>
-      <c r="BG14" s="6"/>
-      <c r="BP14" s="6"/>
-      <c r="BQ14" s="6"/>
-      <c r="BR14" s="6"/>
-      <c r="BS14" s="6"/>
-      <c r="BT14" s="6"/>
+    <row r="18" spans="7:56">
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
     </row>
-    <row r="15" spans="7:72">
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="6"/>
-      <c r="AQ15" s="6"/>
-      <c r="AR15" s="6"/>
-      <c r="AS15" s="6"/>
-      <c r="BC15" s="6"/>
-      <c r="BD15" s="6"/>
-      <c r="BE15" s="6"/>
-      <c r="BF15" s="6"/>
-      <c r="BG15" s="6"/>
-      <c r="BP15" s="6"/>
-      <c r="BQ15" s="6"/>
-      <c r="BR15" s="6"/>
-      <c r="BS15" s="6"/>
-      <c r="BT15" s="6"/>
+    <row r="19" spans="7:56">
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
     </row>
-    <row r="22" spans="7:28" ht="13.5" customHeight="1">
-      <c r="G22" s="5" t="s">
+    <row r="22" spans="7:56" ht="13.5" customHeight="1">
+      <c r="G22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="X22" s="3" t="s">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="X22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AZ22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA22" s="5"/>
+      <c r="BB22" s="5"/>
+      <c r="BC22" s="5"/>
+      <c r="BD22" s="5"/>
     </row>
-    <row r="23" spans="7:28">
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
+    <row r="23" spans="7:56">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AZ23" s="5"/>
+      <c r="BA23" s="5"/>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5"/>
+      <c r="BD23" s="5"/>
     </row>
-    <row r="24" spans="7:28">
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
+    <row r="24" spans="7:56">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AZ24" s="5"/>
+      <c r="BA24" s="5"/>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="5"/>
+      <c r="BD24" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="AJ17:AN19"/>
+    <mergeCell ref="CM13:CQ15"/>
+    <mergeCell ref="G13:K15"/>
+    <mergeCell ref="AZ22:BD24"/>
     <mergeCell ref="G22:K24"/>
     <mergeCell ref="X22:AB24"/>
-    <mergeCell ref="AO13:AS15"/>
+    <mergeCell ref="AZ13:BD15"/>
     <mergeCell ref="G5:K7"/>
     <mergeCell ref="X5:AB7"/>
     <mergeCell ref="X13:AB15"/>
-    <mergeCell ref="BC13:BG15"/>
-    <mergeCell ref="BP13:BT15"/>
-    <mergeCell ref="G13:K15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/構成.xlsx
+++ b/構成.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43D003B-EE22-4A7E-9B66-CFD8CD5AAE60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEEE98C-D7B9-49FB-9A77-5515974003C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>AccessButton</t>
     <phoneticPr fontId="2"/>
@@ -31,19 +32,6 @@
   </si>
   <si>
     <t>ConfigFileVM</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FileManager
-FileM</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MyProject</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Model</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -62,6 +50,262 @@
   <si>
     <t>ConfigFile
 Model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FileManager
+File</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ConfigFile</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FileManager
+FileModel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新 -&gt;</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;- 通知</t>
+    <rPh sb="3" eb="5">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>↑ 通知</t>
+    <rPh sb="2" eb="4">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;- 通知①</t>
+    <rPh sb="3" eb="5">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通知</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通知①</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得 -&gt;</t>
+    <rPh sb="0" eb="1">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①取得 ↓</t>
+    <rPh sb="1" eb="3">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得①</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ConfigFile名が「入力してください」状態の時、実行不可を通知</t>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①取得 ↑</t>
+    <rPh sb="1" eb="3">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通知(予定)</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FileManagerFileにアクセスし、ConfigFile名を取得</t>
+    <rPh sb="32" eb="33">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得したConfigFile名から、ConfigFileにアクセスし、TreeViewsを取得</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TreeViewVMからの取得要求に応じて、Projectは</t>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SqlModel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SQLServer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①コマンド -&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①コマンド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;- 更新</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新要求 -&gt;</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得要求 -&gt;</t>
+    <rPh sb="0" eb="1">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ProjectModel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SqlStatusVM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各種Value</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊ServerName, DataBaseName,</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DataTableName, FieldName,</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SourceValue, DistinationValue</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>↓ 通知</t>
+    <rPh sb="2" eb="4">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SaveButton</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SqlStatus</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Updata AccessFlag</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AccessEnable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SaveButtonVM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SaveEnable</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -118,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -135,23 +379,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -167,9 +462,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF5B9BD5"/>
+      <color rgb="FFCCCCFF"/>
       <color rgb="FFE1E1FF"/>
       <color rgb="FFCCFFFF"/>
-      <color rgb="FFCCCCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -187,23 +483,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="フローチャート: 表示 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A810F08B-85B4-4C40-B092-A81A53EC6C41}"/>
+        <xdr:cNvPr id="7" name="フローチャート: 磁気ディスク 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B08153B-F37B-4DDF-AD0C-747D6038D625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -211,10 +507,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1214438" y="666750"/>
+          <a:off x="8096250" y="2000250"/>
           <a:ext cx="1012031" cy="500063"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartDisplay">
+        <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -248,23 +544,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="フローチャート: 磁気ディスク 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC41148-9817-4ABC-B5DD-881BC358D61E}"/>
+        <xdr:cNvPr id="32" name="フローチャート: 磁気ディスク 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310054A3-2763-4693-B39C-1157EA486010}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -272,8 +568,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4655344" y="666750"/>
-          <a:ext cx="1012031" cy="500063"/>
+          <a:off x="8096250" y="3500438"/>
+          <a:ext cx="1012031" cy="500062"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -309,23 +605,136 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A26FCF-376A-4B12-A5BC-8046CAD8240E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="4"/>
+          <a:endCxn id="31" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8980714" y="4510768"/>
+          <a:ext cx="1020536" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7F01839-9C3C-4856-B491-C43B97974DE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="4"/>
+          <a:endCxn id="62" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="4371975"/>
+          <a:ext cx="609600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="フローチャート: 磁気ディスク 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F34D92A-A8AB-4DA6-AE73-CB554A03A5AC}"/>
+        <xdr:cNvPr id="17" name="フローチャート: 磁気ディスク 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B1A97A-24DE-40D9-AF1F-DEE06912D414}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -333,7 +742,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4655344" y="666750"/>
+          <a:off x="9513094" y="2000250"/>
           <a:ext cx="1012031" cy="500063"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -370,23 +779,135 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76BEA06-A356-4472-81AE-C594F7238B83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="3"/>
+          <a:endCxn id="45" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="5400675"/>
+          <a:ext cx="1009650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E888053-7B4E-4270-AD69-874281D15D14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="4"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6939643" y="4510768"/>
+          <a:ext cx="1020536" cy="707572"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="フローチャート: 磁気ディスク 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B08153B-F37B-4DDF-AD0C-747D6038D625}"/>
+        <xdr:cNvPr id="28" name="四角形: メモ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC758B2D-90FF-4E26-AC6F-DCFD57E77D6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -394,10 +915,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8096250" y="2000250"/>
-          <a:ext cx="1012031" cy="500063"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:off x="8298656" y="2000250"/>
+          <a:ext cx="1012032" cy="500063"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -431,23 +952,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>90</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>95</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F98129B3-5E0C-4A07-B537-691BA7578399}"/>
+        <xdr:cNvPr id="30" name="四角形: メモ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000ABFFE-B1E2-48BE-B588-3A575063BFF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -458,7 +979,7 @@
           <a:off x="10929938" y="2000250"/>
           <a:ext cx="1012031" cy="500063"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
+        <a:prstGeom prst="foldedCorner">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -492,23 +1013,135 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB8D860-5724-4533-B471-67CFCABD82E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="4"/>
+          <a:endCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8980714" y="5218340"/>
+          <a:ext cx="1020536" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{473DDA13-458A-4E4E-B7EC-4549520ABD81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="4"/>
+          <a:endCxn id="32" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6939643" y="5218340"/>
+          <a:ext cx="1020536" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="フローチャート: 表示 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53FAA7CE-2F94-443F-A067-8C1534DE26F1}"/>
+        <xdr:cNvPr id="27" name="フローチャート: 磁気ディスク 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{750EE521-19A8-43A8-917C-A614F136BF3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -516,10 +1149,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1214438" y="666750"/>
-          <a:ext cx="1012031" cy="500063"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDisplay">
+          <a:off x="5510893" y="2122714"/>
+          <a:ext cx="1020536" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -553,92 +1186,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2DC7C77-DD9F-48BF-BAC8-AA52E5EB2AA5}"/>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8421F3CF-C450-4C0C-BA0F-CAA036726040}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="9" idx="3"/>
+          <a:stCxn id="68" idx="2"/>
+          <a:endCxn id="73" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2226469" y="2250282"/>
-          <a:ext cx="2428875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>101204</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>101204</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7328BC9C-CBBC-47D9-8E20-A111727BF7F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="1"/>
-          <a:endCxn id="4" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5161360" y="1166813"/>
-          <a:ext cx="0" cy="833437"/>
+          <a:off x="2857500" y="5925911"/>
+          <a:ext cx="1020536" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -666,80 +1242,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C4FBEE-3168-4CF2-BAE1-5AB5381318F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="4" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2226469" y="916782"/>
-          <a:ext cx="2428875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="フローチャート: 表示 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84596BD3-9E0F-44B9-A25B-A490BE248F54}"/>
+        <xdr:cNvPr id="31" name="フローチャート: 磁気ディスク 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4A2EF6-4B57-4FCC-ADCF-94EAE234911E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -747,10 +1266,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1214438" y="2000250"/>
-          <a:ext cx="1012031" cy="500063"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDisplay">
+          <a:off x="8164286" y="2122714"/>
+          <a:ext cx="1020535" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -784,23 +1303,135 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBAF3516-1A87-4A92-A621-A1411A2CC004}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6531429" y="972911"/>
+          <a:ext cx="1632857" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7A0BB8-AA1E-4DDE-BDCC-605A77783EC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="4"/>
+          <a:endCxn id="17" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6939643" y="5218340"/>
+          <a:ext cx="1020536" cy="707571"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="フローチャート: 磁気ディスク 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D1B74A-5B04-45B3-9B11-534BCD48BC47}"/>
+        <xdr:cNvPr id="59" name="フローチャート: 磁気ディスク 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF96567-D054-49D6-B331-28E4AEC0F82B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -808,8 +1439,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4655344" y="2000250"/>
-          <a:ext cx="1012031" cy="500063"/>
+          <a:off x="3000375" y="685800"/>
+          <a:ext cx="1000125" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -845,35 +1476,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A63BB2A7-D882-469C-87FD-B6B4E2315BD7}"/>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A07C4D-046F-4A45-AC0A-815F79095DBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="25" idx="2"/>
-          <a:endCxn id="23" idx="3"/>
+          <a:stCxn id="61" idx="3"/>
+          <a:endCxn id="59" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2226469" y="3750469"/>
-          <a:ext cx="2428875" cy="0"/>
+        <a:xfrm>
+          <a:off x="1800225" y="4371975"/>
+          <a:ext cx="1600200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -901,23 +1532,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="フローチャート: 磁気ディスク 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310054A3-2763-4693-B39C-1157EA486010}"/>
+        <xdr:cNvPr id="61" name="フローチャート: 表示 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19123BC1-250C-4D3C-9E69-03BB58B4C0B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -925,10 +1556,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8096250" y="3500438"/>
-          <a:ext cx="1012031" cy="500062"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:off x="1836964" y="4245429"/>
+          <a:ext cx="1020536" cy="530678"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -962,135 +1593,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A26FCF-376A-4B12-A5BC-8046CAD8240E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="32" idx="2"/>
-          <a:endCxn id="6" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5667375" y="2250282"/>
-          <a:ext cx="1416844" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7F01839-9C3C-4856-B491-C43B97974DE3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="17" idx="2"/>
-          <a:endCxn id="25" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5667375" y="3750469"/>
-          <a:ext cx="1416844" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="フローチャート: 磁気ディスク 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B1A97A-24DE-40D9-AF1F-DEE06912D414}"/>
+        <xdr:cNvPr id="68" name="フローチャート: 磁気ディスク 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05650D59-41D8-47E1-8643-3AD154A6FC18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1098,8 +1617,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9513094" y="2000250"/>
-          <a:ext cx="1012031" cy="500063"/>
+          <a:off x="3878036" y="4068536"/>
+          <a:ext cx="1020535" cy="530678"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -1135,35 +1654,531 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="フローチャート: 表示 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{662700F7-DC29-4CB6-BCE8-DA01111C940F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="6172200"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>160565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>102053</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18D50E1-0EAE-4F1B-9765-11EAB3405C36}"/>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38EE0D4B-EC42-44E8-AE90-801746685461}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="4"/>
+          <a:stCxn id="47" idx="0"/>
+          <a:endCxn id="52" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3978049" y="5821136"/>
+          <a:ext cx="2040" cy="1608364"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="590550" cy="514350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="グラフィックス 44" descr="レンチ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43C211D-6917-4A97-B08F-E0E9F3CC05A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809875" y="5143500"/>
+          <a:ext cx="590550" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="フローチャート: 表示 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87DFD047-A8F3-44E4-AE16-73F4703FCDD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="4114800"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="フローチャート: 表示 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F571EEB9-AD01-416D-B441-D502BC5FD01F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="5143500"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="589189" cy="514350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="グラフィックス 51" descr="レンチ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70542C57-198C-4E73-8F06-1A5B9224C3CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683454" y="5306786"/>
+          <a:ext cx="589189" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="581025" cy="514350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="グラフィックス 61" descr="レンチ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D13BF984-0CA1-494B-B31D-89A62910F708}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409825" y="4114800"/>
+          <a:ext cx="581025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D78B98-6E07-4993-A1F0-A150EDBBD867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="3"/>
           <a:endCxn id="7" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5667375" y="2250282"/>
-          <a:ext cx="1416844" cy="666750"/>
+          <a:off x="5591175" y="4371975"/>
+          <a:ext cx="609600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9681797-7D35-44EF-8ACC-1420671D5DD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="0"/>
+          <a:endCxn id="27" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5300663" y="3600450"/>
+          <a:ext cx="0" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>102053</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>95931</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A42ABF4-5714-463B-84CC-1BDC0A3A2D6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="1"/>
+          <a:endCxn id="62" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6837589" y="4759779"/>
+          <a:ext cx="1422628" cy="2669721"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1191,15 +2206,1642 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="フローチャート: 磁気ディスク 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D1D2975-DEB8-427A-A658-82F331CAAEA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3469821" y="7783286"/>
+          <a:ext cx="1020536" cy="530678"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="590550" cy="514350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="グラフィックス 41" descr="レンチ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A662A54A-2118-469E-82EC-73A5FEF21D30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2458811" y="5306786"/>
+          <a:ext cx="590550" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>100693</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>102054</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07508302-FBA0-40B5-BF5D-B8BE89140064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="2"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1325336" y="5837464"/>
+          <a:ext cx="1361" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>100693</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>102054</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8063186F-6458-4024-831B-B93EBD1C183A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="40" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1325336" y="6882493"/>
+          <a:ext cx="1361" cy="547007"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2001DB-C68F-46E6-910C-CC7D136B8E76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="2"/>
+          <a:endCxn id="40" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4694464" y="7694840"/>
+          <a:ext cx="1632857" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="590550" cy="514350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="グラフィックス 36" descr="レンチ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1097ED8F-60B4-42CC-974F-BBBF2C3641F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3887561" y="6368143"/>
+          <a:ext cx="590550" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="フローチャート: 磁気ディスク 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB04ED4F-A103-4C29-B64C-421DFDD33A1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3673929" y="7429500"/>
+          <a:ext cx="1020535" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>100693</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>102053</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{439ECD97-CE99-45FF-81AC-51BD494C68F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="0"/>
+          <a:endCxn id="37" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6836229" y="9005207"/>
+          <a:ext cx="1360" cy="547007"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>100693</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>102053</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D4E52C-0F05-4869-A3DE-DFA2AEC44CC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="3"/>
+          <a:endCxn id="37" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6836229" y="7960179"/>
+          <a:ext cx="1360" cy="530678"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート: 表示 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885553B8-A6D5-4469-B6AD-1AA973207120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="2057400"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート: 磁気ディスク 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4FE746B-FD7D-4EE5-AA25-8FBC87C73BC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000375" y="2057400"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 磁気ディスク 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3CB1EB-2292-40A0-9566-D2C30247D66D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000375" y="3429000"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 磁気ディスク 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA19F98-0B2B-49E8-9C6D-2E8DAE13A337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="4800600"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 表示 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2DB346-88A9-43E6-BE31-68BC7A7BB371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="3429000"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E315D1AD-2FC9-47DB-A377-C21DE49A6128}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1600200" y="3683794"/>
+          <a:ext cx="1400175" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101204</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101204</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB3F0AF-23E9-42B8-8EBA-5E2C7A47ED2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3501629" y="2571750"/>
+          <a:ext cx="0" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B27A4181-4676-4E49-B277-9DD27791F60C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="2312194"/>
+          <a:ext cx="1400175" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート: 表示 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFF3D67-75B8-48CB-87A5-C328E17D005B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="6172200"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート: 磁気ディスク 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16211E17-FBD7-41AD-B83F-A216654D648F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000375" y="6172200"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5ABAF70-B791-49BD-9039-244701D2F635}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1600200" y="6426994"/>
+          <a:ext cx="1400175" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="フローチャート: 磁気ディスク 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2226E9E4-5601-4338-B84C-B1F45E00F87E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="3429000"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A160BF-7889-4E26-851A-C0B10321539B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="4"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="3683794"/>
+          <a:ext cx="2400300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{036FC765-AB06-4713-8DA5-33853B4C2CA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="4"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4000500" y="5055394"/>
+          <a:ext cx="2400300" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="フローチャート: 磁気ディスク 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2696E07C-8C57-4580-B531-A981487B827C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="6172200"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>101204</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>101204</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8889683C-EE17-4721-B9DA-34B9C89E5134}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6902054" y="5314950"/>
+          <a:ext cx="0" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>101203</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>101203</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3514C55B-4877-4738-81C3-8B29DEC8712D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+          <a:endCxn id="13" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6902053" y="3943350"/>
+          <a:ext cx="0" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="四角形: メモ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0181F9D1-7CF9-40B2-883B-E3660A72AF13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10801350" y="3429000"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="四角形: メモ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1421A4D5-ED86-4DF7-8FCD-10F7F598736B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10801350" y="6172200"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1207,19 +3849,19 @@
         <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC2A9FA-187B-4A7C-8705-D7B2839BA394}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5E114FF-B4DD-4DD3-BC59-54CCAAB5AF7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="25" idx="4"/>
-          <a:endCxn id="7" idx="2"/>
+          <a:stCxn id="5" idx="4"/>
+          <a:endCxn id="20" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5667375" y="2917032"/>
-          <a:ext cx="1416844" cy="833437"/>
+        <a:xfrm>
+          <a:off x="7400925" y="5055394"/>
+          <a:ext cx="3400425" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1247,35 +3889,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76BEA06-A356-4472-81AE-C594F7238B83}"/>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D0373D-BC41-4084-BF58-819DDD4BBDDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="4"/>
-          <a:endCxn id="17" idx="2"/>
+          <a:stCxn id="5" idx="4"/>
+          <a:endCxn id="19" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8096250" y="2917032"/>
-          <a:ext cx="2226469" cy="833437"/>
+        <a:xfrm flipV="1">
+          <a:off x="7400925" y="3683794"/>
+          <a:ext cx="3400425" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1303,35 +3945,503 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="フローチャート: 磁気ディスク 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19CCFB43-CC20-4188-89B4-C27FFCE5D273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="3943350"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E888053-7B4E-4270-AD69-874281D15D14}"/>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E5ACEA-4415-4C09-9847-01F831865CE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="4"/>
-          <a:endCxn id="32" idx="2"/>
+          <a:stCxn id="3" idx="4"/>
+          <a:endCxn id="23" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8096250" y="2250282"/>
-          <a:ext cx="2226469" cy="666750"/>
+        <a:xfrm>
+          <a:off x="4000500" y="2317297"/>
+          <a:ext cx="2400300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="フローチャート: 磁気ディスク 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811DE2ED-BA4B-48F3-BC7B-65E5820ABDAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10801350" y="2057400"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16584355-EE12-43F1-B9F6-9EAD91EF2FEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400925" y="2317297"/>
+          <a:ext cx="3400425" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="フローチャート: 磁気ディスク 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25444EF9-DFF8-4CB5-8D2A-06BC89B7FBDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000375" y="685800"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8123B7-71AE-4CB5-920B-FEA517E24EF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="4"/>
+          <a:endCxn id="23" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="945697"/>
+          <a:ext cx="2400300" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07EE67F8-B196-4E69-ABB4-BA6EB628D9CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="2"/>
+          <a:endCxn id="30" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1600200" y="945697"/>
+          <a:ext cx="1400175" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="フローチャート: 表示 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD7DCB0-D25A-40E1-843C-1E4851116FC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="685800"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>102054</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>102054</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52FF5A0-554E-4CA9-99EC-B2DD5B333591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3502479" y="1200150"/>
+          <a:ext cx="0" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1623,225 +4733,1379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G5:CQ24"/>
+  <dimension ref="S3:CX60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BR23" sqref="BR23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH51" sqref="AH51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16" width="2.625" style="1"/>
-    <col min="17" max="17" width="2.625" style="2"/>
-    <col min="18" max="16384" width="2.625" style="1"/>
+    <col min="1" max="24" width="2.625" style="14"/>
+    <col min="25" max="29" width="2.625" style="14" customWidth="1"/>
+    <col min="30" max="47" width="2.625" style="14"/>
+    <col min="48" max="77" width="2.625" style="1"/>
+    <col min="78" max="78" width="2.625" style="8"/>
+    <col min="79" max="80" width="2.625" style="5"/>
+    <col min="81" max="81" width="2.625" style="10"/>
+    <col min="82" max="16384" width="2.625" style="14"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:95">
-      <c r="G5" s="6" t="s">
+    <row r="3" spans="32:83" ht="13.5" customHeight="1"/>
+    <row r="12" spans="32:83">
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="BZ12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD12" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="32:83">
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="BP13" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="32:83">
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+    </row>
+    <row r="15" spans="32:83">
+      <c r="BP15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BZ15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="CD15" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="32:83">
+      <c r="CE16" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="19:102">
+      <c r="CE17" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="19:102">
+      <c r="AM19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
+    </row>
+    <row r="20" spans="19:102">
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="19"/>
+      <c r="BZ20" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="19:102" ht="13.5" customHeight="1">
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="19"/>
+      <c r="CT21" s="7"/>
+      <c r="CU21" s="7"/>
+      <c r="CV21" s="7"/>
+      <c r="CW21" s="7"/>
+      <c r="CX21" s="7"/>
+    </row>
+    <row r="22" spans="19:102">
+      <c r="CT22" s="7"/>
+      <c r="CU22" s="7"/>
+      <c r="CV22" s="7"/>
+      <c r="CW22" s="7"/>
+      <c r="CX22" s="7"/>
+    </row>
+    <row r="23" spans="19:102">
+      <c r="CT23" s="7"/>
+      <c r="CU23" s="7"/>
+      <c r="CV23" s="7"/>
+      <c r="CW23" s="7"/>
+      <c r="CX23" s="7"/>
+    </row>
+    <row r="24" spans="19:102" s="15" customFormat="1">
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
+      <c r="BO24" s="3"/>
+      <c r="BP24" s="3"/>
+      <c r="BQ24" s="3"/>
+      <c r="BR24" s="3"/>
+      <c r="BS24" s="3"/>
+      <c r="BT24" s="3"/>
+      <c r="BU24" s="3"/>
+      <c r="BV24" s="3"/>
+      <c r="BW24" s="3"/>
+      <c r="BX24" s="3"/>
+      <c r="BY24" s="3"/>
+      <c r="BZ24" s="11"/>
+      <c r="CA24" s="12"/>
+      <c r="CB24" s="12"/>
+      <c r="CC24" s="13"/>
+      <c r="CT24" s="7"/>
+      <c r="CU24" s="7"/>
+      <c r="CV24" s="7"/>
+      <c r="CW24" s="7"/>
+      <c r="CX24" s="7"/>
+    </row>
+    <row r="25" spans="19:102" s="15" customFormat="1">
+      <c r="S25" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="16"/>
+      <c r="AJ25" s="16"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AT25" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU25" s="19"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="3"/>
+      <c r="BO25" s="3"/>
+      <c r="BP25" s="3"/>
+      <c r="BQ25" s="3"/>
+      <c r="BR25" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS25" s="18"/>
+      <c r="BT25" s="18"/>
+      <c r="BU25" s="18"/>
+      <c r="BV25" s="18"/>
+      <c r="BW25" s="3"/>
+      <c r="BX25" s="3"/>
+      <c r="BY25" s="3"/>
+      <c r="BZ25" s="11"/>
+      <c r="CA25" s="12"/>
+      <c r="CB25" s="12"/>
+      <c r="CC25" s="13"/>
+      <c r="CT25" s="7"/>
+      <c r="CU25" s="7"/>
+      <c r="CV25" s="7"/>
+      <c r="CW25" s="7"/>
+      <c r="CX25" s="7"/>
+    </row>
+    <row r="26" spans="19:102" s="15" customFormat="1">
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="16"/>
+      <c r="AN26" s="14"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="14"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="3"/>
+      <c r="BO26" s="3"/>
+      <c r="BP26" s="3"/>
+      <c r="BQ26" s="3"/>
+      <c r="BR26" s="18"/>
+      <c r="BS26" s="18"/>
+      <c r="BT26" s="18"/>
+      <c r="BU26" s="18"/>
+      <c r="BV26" s="18"/>
+      <c r="BW26" s="3"/>
+      <c r="BX26" s="3"/>
+      <c r="BY26" s="3"/>
+      <c r="BZ26" s="11"/>
+      <c r="CA26" s="12"/>
+      <c r="CB26" s="12"/>
+      <c r="CC26" s="13"/>
+      <c r="CT26" s="7"/>
+      <c r="CU26" s="7"/>
+      <c r="CV26" s="7"/>
+      <c r="CW26" s="7"/>
+      <c r="CX26" s="7"/>
+    </row>
+    <row r="27" spans="19:102" s="15" customFormat="1">
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="16"/>
+      <c r="AJ27" s="16"/>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP27" s="14"/>
+      <c r="AT27" s="19"/>
+      <c r="AU27" s="19"/>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="19"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BM27" s="3"/>
+      <c r="BN27" s="3"/>
+      <c r="BO27" s="3"/>
+      <c r="BP27" s="3"/>
+      <c r="BQ27" s="3"/>
+      <c r="BR27" s="18"/>
+      <c r="BS27" s="18"/>
+      <c r="BT27" s="18"/>
+      <c r="BU27" s="18"/>
+      <c r="BV27" s="18"/>
+      <c r="BW27" s="3"/>
+      <c r="BX27" s="3"/>
+      <c r="BY27" s="3"/>
+      <c r="BZ27" s="11"/>
+      <c r="CA27" s="12"/>
+      <c r="CB27" s="12"/>
+      <c r="CC27" s="13"/>
+      <c r="CT27" s="7"/>
+      <c r="CU27" s="7"/>
+      <c r="CV27" s="7"/>
+      <c r="CW27" s="7"/>
+      <c r="CX27" s="7"/>
+    </row>
+    <row r="28" spans="19:102">
+      <c r="AO28" s="1"/>
+    </row>
+    <row r="29" spans="19:102">
+      <c r="BH29" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI29" s="19"/>
+      <c r="BJ29" s="19"/>
+      <c r="BK29" s="19"/>
+      <c r="BL29" s="19"/>
+      <c r="BR29" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS29" s="18"/>
+      <c r="BT29" s="18"/>
+      <c r="BU29" s="18"/>
+      <c r="BV29" s="18"/>
+    </row>
+    <row r="30" spans="19:102">
+      <c r="BH30" s="19"/>
+      <c r="BI30" s="19"/>
+      <c r="BJ30" s="19"/>
+      <c r="BK30" s="19"/>
+      <c r="BL30" s="19"/>
+      <c r="BR30" s="18"/>
+      <c r="BS30" s="18"/>
+      <c r="BT30" s="18"/>
+      <c r="BU30" s="18"/>
+      <c r="BV30" s="18"/>
+    </row>
+    <row r="31" spans="19:102">
+      <c r="S31" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="X5" s="4" t="s">
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="BH31" s="19"/>
+      <c r="BI31" s="19"/>
+      <c r="BJ31" s="19"/>
+      <c r="BK31" s="19"/>
+      <c r="BL31" s="19"/>
+      <c r="BR31" s="18"/>
+      <c r="BS31" s="18"/>
+      <c r="BT31" s="18"/>
+      <c r="BU31" s="18"/>
+      <c r="BV31" s="18"/>
+    </row>
+    <row r="32" spans="19:102">
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="AL32" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="19:76">
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="BH33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI33" s="19"/>
+      <c r="BJ33" s="19"/>
+      <c r="BK33" s="19"/>
+      <c r="BL33" s="19"/>
+    </row>
+    <row r="34" spans="19:76">
+      <c r="AY34" s="9"/>
+      <c r="BH34" s="19"/>
+      <c r="BI34" s="19"/>
+      <c r="BJ34" s="19"/>
+      <c r="BK34" s="19"/>
+      <c r="BL34" s="19"/>
+    </row>
+    <row r="35" spans="19:76">
+      <c r="BH35" s="19"/>
+      <c r="BI35" s="19"/>
+      <c r="BJ35" s="19"/>
+      <c r="BK35" s="19"/>
+      <c r="BL35" s="19"/>
+    </row>
+    <row r="37" spans="19:76" ht="13.5" customHeight="1">
+      <c r="BT37" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="BU37" s="18"/>
+      <c r="BV37" s="18"/>
+      <c r="BW37" s="18"/>
+      <c r="BX37" s="18"/>
+    </row>
+    <row r="38" spans="19:76">
+      <c r="BT38" s="18"/>
+      <c r="BU38" s="18"/>
+      <c r="BV38" s="18"/>
+      <c r="BW38" s="18"/>
+      <c r="BX38" s="18"/>
+    </row>
+    <row r="39" spans="19:76">
+      <c r="U39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT39" s="18"/>
+      <c r="BU39" s="18"/>
+      <c r="BV39" s="18"/>
+      <c r="BW39" s="18"/>
+      <c r="BX39" s="18"/>
+    </row>
+    <row r="43" spans="19:76">
+      <c r="S43" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-    </row>
-    <row r="6" spans="7:95">
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-    </row>
-    <row r="7" spans="7:95">
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-    </row>
-    <row r="13" spans="7:95">
-      <c r="G13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="X13" s="4" t="s">
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="AF43" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG43" s="16"/>
+      <c r="AH43" s="16"/>
+      <c r="AI43" s="16"/>
+      <c r="AJ43" s="16"/>
+    </row>
+    <row r="44" spans="19:76">
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="AF44" s="16"/>
+      <c r="AG44" s="16"/>
+      <c r="AH44" s="16"/>
+      <c r="AI44" s="16"/>
+      <c r="AJ44" s="16"/>
+    </row>
+    <row r="45" spans="19:76">
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="AF45" s="16"/>
+      <c r="AG45" s="16"/>
+      <c r="AH45" s="16"/>
+      <c r="AI45" s="16"/>
+      <c r="AJ45" s="16"/>
+    </row>
+    <row r="51" spans="32:63">
+      <c r="AH51" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="32:63">
+      <c r="AV52" s="14"/>
+      <c r="AW52" s="14"/>
+      <c r="AX52" s="14"/>
+      <c r="AY52" s="14"/>
+      <c r="AZ52" s="14"/>
+      <c r="BA52" s="14"/>
+      <c r="BB52" s="14"/>
+      <c r="BC52" s="14"/>
+      <c r="BD52" s="14"/>
+      <c r="BE52" s="14"/>
+      <c r="BF52" s="14"/>
+      <c r="BG52" s="14"/>
+      <c r="BH52" s="14"/>
+      <c r="BI52" s="14"/>
+      <c r="BJ52" s="14"/>
+      <c r="BK52" s="14"/>
+    </row>
+    <row r="53" spans="32:63">
+      <c r="AV53" s="14"/>
+      <c r="AW53" s="14"/>
+      <c r="AX53" s="14"/>
+      <c r="AY53" s="14"/>
+      <c r="AZ53" s="14"/>
+      <c r="BA53" s="14"/>
+      <c r="BB53" s="14"/>
+      <c r="BC53" s="14"/>
+      <c r="BD53" s="14"/>
+      <c r="BE53" s="14"/>
+      <c r="BF53" s="14"/>
+      <c r="BG53" s="14"/>
+      <c r="BH53" s="14"/>
+      <c r="BI53" s="14"/>
+      <c r="BJ53" s="14"/>
+      <c r="BK53" s="14"/>
+    </row>
+    <row r="54" spans="32:63">
+      <c r="AV54" s="14"/>
+      <c r="AW54" s="14"/>
+      <c r="AX54" s="14"/>
+      <c r="AY54" s="14"/>
+      <c r="AZ54" s="14"/>
+      <c r="BA54" s="14"/>
+      <c r="BB54" s="14"/>
+      <c r="BC54" s="14"/>
+      <c r="BD54" s="14"/>
+      <c r="BE54" s="14"/>
+      <c r="BF54" s="14"/>
+      <c r="BG54" s="14"/>
+      <c r="BH54" s="14"/>
+      <c r="BI54" s="14"/>
+      <c r="BJ54" s="14"/>
+      <c r="BK54" s="14"/>
+    </row>
+    <row r="55" spans="32:63">
+      <c r="AF55" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG55" s="20"/>
+      <c r="AH55" s="20"/>
+      <c r="AI55" s="20"/>
+      <c r="AJ55" s="20"/>
+      <c r="AV55" s="14"/>
+      <c r="AW55" s="14"/>
+      <c r="AX55" s="14"/>
+      <c r="AY55" s="14"/>
+      <c r="AZ55" s="14"/>
+      <c r="BA55" s="14"/>
+      <c r="BB55" s="14"/>
+      <c r="BC55" s="14"/>
+      <c r="BD55" s="14"/>
+      <c r="BE55" s="14"/>
+      <c r="BF55" s="14"/>
+      <c r="BG55" s="14"/>
+      <c r="BH55" s="14"/>
+      <c r="BI55" s="14"/>
+      <c r="BJ55" s="14"/>
+      <c r="BK55" s="14"/>
+    </row>
+    <row r="56" spans="32:63">
+      <c r="AF56" s="20"/>
+      <c r="AG56" s="20"/>
+      <c r="AH56" s="20"/>
+      <c r="AI56" s="20"/>
+      <c r="AJ56" s="20"/>
+      <c r="AV56" s="14"/>
+      <c r="AW56" s="14"/>
+      <c r="AX56" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY56" s="17"/>
+      <c r="AZ56" s="17"/>
+      <c r="BA56" s="14"/>
+      <c r="BB56" s="14"/>
+      <c r="BC56" s="14"/>
+      <c r="BD56" s="14"/>
+      <c r="BE56" s="14"/>
+      <c r="BF56" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG56" s="16"/>
+      <c r="BH56" s="16"/>
+      <c r="BI56" s="16"/>
+      <c r="BJ56" s="16"/>
+      <c r="BK56" s="14"/>
+    </row>
+    <row r="57" spans="32:63">
+      <c r="AF57" s="20"/>
+      <c r="AG57" s="20"/>
+      <c r="AH57" s="20"/>
+      <c r="AI57" s="20"/>
+      <c r="AJ57" s="20"/>
+      <c r="AV57" s="14"/>
+      <c r="AW57" s="14"/>
+      <c r="AX57" s="17"/>
+      <c r="AY57" s="17"/>
+      <c r="AZ57" s="17"/>
+      <c r="BA57" s="14"/>
+      <c r="BB57" s="14"/>
+      <c r="BC57" s="14"/>
+      <c r="BD57" s="14"/>
+      <c r="BE57" s="14"/>
+      <c r="BF57" s="16"/>
+      <c r="BG57" s="16"/>
+      <c r="BH57" s="16"/>
+      <c r="BI57" s="16"/>
+      <c r="BJ57" s="16"/>
+      <c r="BK57" s="14"/>
+    </row>
+    <row r="58" spans="32:63">
+      <c r="AV58" s="14"/>
+      <c r="AW58" s="14"/>
+      <c r="AX58" s="17"/>
+      <c r="AY58" s="17"/>
+      <c r="AZ58" s="17"/>
+      <c r="BA58" s="14"/>
+      <c r="BB58" s="14"/>
+      <c r="BC58" s="14"/>
+      <c r="BD58" s="14"/>
+      <c r="BE58" s="14"/>
+      <c r="BF58" s="16"/>
+      <c r="BG58" s="16"/>
+      <c r="BH58" s="16"/>
+      <c r="BI58" s="16"/>
+      <c r="BJ58" s="16"/>
+      <c r="BK58" s="14"/>
+    </row>
+    <row r="59" spans="32:63">
+      <c r="AV59" s="14"/>
+      <c r="AW59" s="14"/>
+      <c r="AX59" s="14"/>
+      <c r="AY59" s="14"/>
+      <c r="AZ59" s="14"/>
+      <c r="BA59" s="14"/>
+      <c r="BB59" s="14"/>
+      <c r="BC59" s="14"/>
+      <c r="BD59" s="14"/>
+      <c r="BE59" s="14"/>
+      <c r="BF59" s="14"/>
+      <c r="BG59" s="14"/>
+      <c r="BH59" s="14"/>
+      <c r="BI59" s="14"/>
+      <c r="BJ59" s="14"/>
+      <c r="BK59" s="14"/>
+    </row>
+    <row r="60" spans="32:63">
+      <c r="AV60" s="14"/>
+      <c r="AW60" s="14"/>
+      <c r="AX60" s="14"/>
+      <c r="AY60" s="14"/>
+      <c r="AZ60" s="14"/>
+      <c r="BA60" s="14"/>
+      <c r="BB60" s="14"/>
+      <c r="BC60" s="14"/>
+      <c r="BD60" s="14"/>
+      <c r="BE60" s="14"/>
+      <c r="BF60" s="14"/>
+      <c r="BG60" s="14"/>
+      <c r="BH60" s="14"/>
+      <c r="BI60" s="14"/>
+      <c r="BJ60" s="14"/>
+      <c r="BK60" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="S43:W45"/>
+    <mergeCell ref="AF43:AJ45"/>
+    <mergeCell ref="S25:W27"/>
+    <mergeCell ref="BH33:BL35"/>
+    <mergeCell ref="BH29:BL31"/>
+    <mergeCell ref="BT37:BX39"/>
+    <mergeCell ref="AF25:AJ27"/>
+    <mergeCell ref="S31:W33"/>
+    <mergeCell ref="BF56:BJ58"/>
+    <mergeCell ref="AX56:AZ58"/>
+    <mergeCell ref="BR29:BV31"/>
+    <mergeCell ref="AT25:AX27"/>
+    <mergeCell ref="AM19:AQ21"/>
+    <mergeCell ref="BR25:BV27"/>
+    <mergeCell ref="AF55:AJ57"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D931F97A-3675-4594-AA50-E23AEDCE3352}">
+  <dimension ref="A3:CG46"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="38" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS1" sqref="AS1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37:H39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="60" width="2.625" style="1"/>
+    <col min="61" max="61" width="2.625" style="8"/>
+    <col min="62" max="63" width="2.625" style="5"/>
+    <col min="64" max="64" width="2.625" style="10"/>
+    <col min="65" max="16384" width="2.625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:66" ht="13.5" customHeight="1"/>
+    <row r="5" spans="2:66">
+      <c r="D5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="L5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+    </row>
+    <row r="6" spans="2:66">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+    </row>
+    <row r="7" spans="2:66">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+    </row>
+    <row r="8" spans="2:66">
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:66">
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:66">
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:66">
+      <c r="BI12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BM12" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:66">
+      <c r="D13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="L13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="AC13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD13" s="18"/>
+      <c r="BE13" s="18"/>
+      <c r="BF13" s="18"/>
+      <c r="BG13" s="18"/>
+    </row>
+    <row r="14" spans="2:66">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="BC14" s="18"/>
+      <c r="BD14" s="18"/>
+      <c r="BE14" s="18"/>
+      <c r="BF14" s="18"/>
+      <c r="BG14" s="18"/>
+    </row>
+    <row r="15" spans="2:66">
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="L15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="AY15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC15" s="18"/>
+      <c r="BD15" s="18"/>
+      <c r="BE15" s="18"/>
+      <c r="BF15" s="18"/>
+      <c r="BG15" s="18"/>
+      <c r="BI15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="BM15" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:66">
+      <c r="BN16" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:85">
+      <c r="BN17" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:85">
+      <c r="S18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:85">
+      <c r="BI20" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:85" ht="13.5" customHeight="1">
+      <c r="D21" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="L21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AZ13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA13" s="5"/>
-      <c r="BB13" s="5"/>
-      <c r="BC13" s="5"/>
-      <c r="BD13" s="5"/>
-      <c r="CM13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="CN13" s="5"/>
-      <c r="CO13" s="5"/>
-      <c r="CP13" s="5"/>
-      <c r="CQ13" s="5"/>
-    </row>
-    <row r="14" spans="7:95">
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AZ14" s="5"/>
-      <c r="BA14" s="5"/>
-      <c r="BB14" s="5"/>
-      <c r="BC14" s="5"/>
-      <c r="BD14" s="5"/>
-      <c r="CM14" s="5"/>
-      <c r="CN14" s="5"/>
-      <c r="CO14" s="5"/>
-      <c r="CP14" s="5"/>
-      <c r="CQ14" s="5"/>
-    </row>
-    <row r="15" spans="7:95">
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AZ15" s="5"/>
-      <c r="BA15" s="5"/>
-      <c r="BB15" s="5"/>
-      <c r="BC15" s="5"/>
-      <c r="BD15" s="5"/>
-      <c r="CM15" s="5"/>
-      <c r="CN15" s="5"/>
-      <c r="CO15" s="5"/>
-      <c r="CP15" s="5"/>
-      <c r="CQ15" s="5"/>
-    </row>
-    <row r="17" spans="7:56">
-      <c r="AJ17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-    </row>
-    <row r="18" spans="7:56">
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-    </row>
-    <row r="19" spans="7:56">
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-    </row>
-    <row r="22" spans="7:56" ht="13.5" customHeight="1">
-      <c r="G22" s="3" t="s">
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="AC21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="19"/>
+      <c r="BC21" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="X22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AZ22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA22" s="5"/>
-      <c r="BB22" s="5"/>
-      <c r="BC22" s="5"/>
-      <c r="BD22" s="5"/>
-    </row>
-    <row r="23" spans="7:56">
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AZ23" s="5"/>
-      <c r="BA23" s="5"/>
-      <c r="BB23" s="5"/>
-      <c r="BC23" s="5"/>
-      <c r="BD23" s="5"/>
-    </row>
-    <row r="24" spans="7:56">
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="BD21" s="18"/>
+      <c r="BE21" s="18"/>
+      <c r="BF21" s="18"/>
+      <c r="BG21" s="18"/>
+      <c r="CC21" s="7"/>
+      <c r="CD21" s="7"/>
+      <c r="CE21" s="7"/>
+      <c r="CF21" s="7"/>
+      <c r="CG21" s="7"/>
+    </row>
+    <row r="22" spans="1:85">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="BC22" s="18"/>
+      <c r="BD22" s="18"/>
+      <c r="BE22" s="18"/>
+      <c r="BF22" s="18"/>
+      <c r="BG22" s="18"/>
+      <c r="CC22" s="7"/>
+      <c r="CD22" s="7"/>
+      <c r="CE22" s="7"/>
+      <c r="CF22" s="7"/>
+      <c r="CG22" s="7"/>
+    </row>
+    <row r="23" spans="1:85">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="L23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="BC23" s="18"/>
+      <c r="BD23" s="18"/>
+      <c r="BE23" s="18"/>
+      <c r="BF23" s="18"/>
+      <c r="BG23" s="18"/>
+      <c r="CC23" s="7"/>
+      <c r="CD23" s="7"/>
+      <c r="CE23" s="7"/>
+      <c r="CF23" s="7"/>
+      <c r="CG23" s="7"/>
+    </row>
+    <row r="24" spans="1:85" s="15" customFormat="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AZ24" s="5"/>
-      <c r="BA24" s="5"/>
-      <c r="BB24" s="5"/>
-      <c r="BC24" s="5"/>
-      <c r="BD24" s="5"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="11"/>
+      <c r="BJ24" s="12"/>
+      <c r="BK24" s="12"/>
+      <c r="BL24" s="13"/>
+      <c r="CC24" s="7"/>
+      <c r="CD24" s="7"/>
+      <c r="CE24" s="7"/>
+      <c r="CF24" s="7"/>
+      <c r="CG24" s="7"/>
+    </row>
+    <row r="25" spans="1:85" s="15" customFormat="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="11"/>
+      <c r="BJ25" s="12"/>
+      <c r="BK25" s="12"/>
+      <c r="BL25" s="13"/>
+      <c r="CC25" s="7"/>
+      <c r="CD25" s="7"/>
+      <c r="CE25" s="7"/>
+      <c r="CF25" s="7"/>
+      <c r="CG25" s="7"/>
+    </row>
+    <row r="26" spans="1:85" s="15" customFormat="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="11"/>
+      <c r="BJ26" s="12"/>
+      <c r="BK26" s="12"/>
+      <c r="BL26" s="13"/>
+      <c r="CC26" s="7"/>
+      <c r="CD26" s="7"/>
+      <c r="CE26" s="7"/>
+      <c r="CF26" s="7"/>
+      <c r="CG26" s="7"/>
+    </row>
+    <row r="27" spans="1:85" s="15" customFormat="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="11"/>
+      <c r="BJ27" s="12"/>
+      <c r="BK27" s="12"/>
+      <c r="BL27" s="13"/>
+      <c r="CC27" s="7"/>
+      <c r="CD27" s="7"/>
+      <c r="CE27" s="7"/>
+      <c r="CF27" s="7"/>
+      <c r="CG27" s="7"/>
+    </row>
+    <row r="29" spans="1:85">
+      <c r="AG29" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19"/>
+    </row>
+    <row r="30" spans="1:85">
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="19"/>
+    </row>
+    <row r="31" spans="1:85">
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="19"/>
+      <c r="AK31" s="19"/>
+    </row>
+    <row r="33" spans="4:59">
+      <c r="AC33" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="4:59">
+      <c r="AH34" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="4:59" ht="13.5" customHeight="1">
+      <c r="D37" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="L37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="AG37" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="19"/>
+      <c r="AK37" s="19"/>
+      <c r="BC37" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD37" s="18"/>
+      <c r="BE37" s="18"/>
+      <c r="BF37" s="18"/>
+      <c r="BG37" s="18"/>
+    </row>
+    <row r="38" spans="4:59">
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="19"/>
+      <c r="BC38" s="18"/>
+      <c r="BD38" s="18"/>
+      <c r="BE38" s="18"/>
+      <c r="BF38" s="18"/>
+      <c r="BG38" s="18"/>
+    </row>
+    <row r="39" spans="4:59">
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="AG39" s="19"/>
+      <c r="AH39" s="19"/>
+      <c r="AI39" s="19"/>
+      <c r="AJ39" s="19"/>
+      <c r="AK39" s="19"/>
+      <c r="BC39" s="18"/>
+      <c r="BD39" s="18"/>
+      <c r="BE39" s="18"/>
+      <c r="BF39" s="18"/>
+      <c r="BG39" s="18"/>
+    </row>
+    <row r="46" spans="4:59">
+      <c r="D46" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="AJ17:AN19"/>
-    <mergeCell ref="CM13:CQ15"/>
-    <mergeCell ref="G13:K15"/>
-    <mergeCell ref="AZ22:BD24"/>
-    <mergeCell ref="G22:K24"/>
-    <mergeCell ref="X22:AB24"/>
-    <mergeCell ref="AZ13:BD15"/>
-    <mergeCell ref="G5:K7"/>
-    <mergeCell ref="X5:AB7"/>
-    <mergeCell ref="X13:AB15"/>
+  <mergeCells count="15">
+    <mergeCell ref="BC37:BG39"/>
+    <mergeCell ref="D5:H7"/>
+    <mergeCell ref="P5:T7"/>
+    <mergeCell ref="D13:H15"/>
+    <mergeCell ref="P13:T15"/>
+    <mergeCell ref="BC13:BG15"/>
+    <mergeCell ref="D21:H23"/>
+    <mergeCell ref="P21:T23"/>
+    <mergeCell ref="AG21:AK23"/>
+    <mergeCell ref="BC21:BG23"/>
+    <mergeCell ref="W24:AA26"/>
+    <mergeCell ref="AG29:AK31"/>
+    <mergeCell ref="D37:H39"/>
+    <mergeCell ref="P37:T39"/>
+    <mergeCell ref="AG37:AK39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/構成.xlsx
+++ b/構成.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEEE98C-D7B9-49FB-9A77-5515974003C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C50F7D5-F4A0-4854-ACD3-09F10A0C45A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>AccessButton</t>
     <phoneticPr fontId="2"/>
@@ -308,6 +309,41 @@
     <t>SaveEnable</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>Sql</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Command -&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Set/Get -&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SqlHandler</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参照 -&gt;</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Get -&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>↓ Get</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデル１</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -392,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -439,20 +475,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,23 +528,136 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5C6377-FD91-40CA-84F9-31801DA65852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="18" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4082143" y="2741840"/>
+          <a:ext cx="1836964" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{212F91B8-DE9C-4C88-ACF6-6FD520657BF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="3"/>
+          <a:endCxn id="32" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4694464" y="5572125"/>
+          <a:ext cx="1632857" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="フローチャート: 磁気ディスク 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B08153B-F37B-4DDF-AD0C-747D6038D625}"/>
+        <xdr:cNvPr id="13" name="フローチャート: 磁気ディスク 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2C6BC9-56CC-4512-A834-C9170146F7CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -507,8 +665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8096250" y="2000250"/>
-          <a:ext cx="1012031" cy="500063"/>
+          <a:off x="7600950" y="3086100"/>
+          <a:ext cx="1000125" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -544,23 +702,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="フローチャート: 磁気ディスク 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310054A3-2763-4693-B39C-1157EA486010}"/>
+        <xdr:cNvPr id="18" name="フローチャート: 磁気ディスク 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDEF5164-4124-4B4E-8948-926B4A3076D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -568,8 +726,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8096250" y="3500438"/>
-          <a:ext cx="1012031" cy="500062"/>
+          <a:off x="6200775" y="4114800"/>
+          <a:ext cx="1000125" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -605,92 +763,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>88447</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>88447</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A26FCF-376A-4B12-A5BC-8046CAD8240E}"/>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7CAF678-4E49-46AA-8F1E-B9DEEDAE4230}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="27" idx="4"/>
-          <a:endCxn id="31" idx="2"/>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="18" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8980714" y="4510768"/>
-          <a:ext cx="1020536" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7F01839-9C3C-4856-B491-C43B97974DE3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="59" idx="4"/>
-          <a:endCxn id="62" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4400550" y="4371975"/>
-          <a:ext cx="609600" cy="0"/>
+          <a:off x="4600575" y="4371975"/>
+          <a:ext cx="1600200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -718,23 +819,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="フローチャート: 磁気ディスク 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B1A97A-24DE-40D9-AF1F-DEE06912D414}"/>
+        <xdr:cNvPr id="20" name="フローチャート: 表示 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EBD3486-E855-4201-9565-5CFB528BF3AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -742,10 +843,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9513094" y="2000250"/>
-          <a:ext cx="1012031" cy="500063"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:off x="3600450" y="4114800"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -779,135 +880,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76BEA06-A356-4472-81AE-C594F7238B83}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="3"/>
-          <a:endCxn id="45" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1800225" y="5400675"/>
-          <a:ext cx="1009650" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>88447</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>88447</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E888053-7B4E-4270-AD69-874281D15D14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="4"/>
-          <a:endCxn id="27" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6939643" y="4510768"/>
-          <a:ext cx="1020536" cy="707572"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="四角形: メモ 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC758B2D-90FF-4E26-AC6F-DCFD57E77D6A}"/>
+        <xdr:cNvPr id="25" name="フローチャート: 表示 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA798015-D19F-41BD-93CE-59E9434794D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -915,10 +904,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8298656" y="2000250"/>
-          <a:ext cx="1012032" cy="500063"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
+          <a:off x="3600450" y="5143500"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -952,23 +941,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="四角形: メモ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000ABFFE-B1E2-48BE-B588-3A575063BFF1}"/>
+        <xdr:cNvPr id="32" name="フローチャート: 磁気ディスク 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB11CC8-C686-4632-BC30-66793C1DBC1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -976,10 +965,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10929938" y="2000250"/>
-          <a:ext cx="1012031" cy="500063"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
+          <a:off x="3600450" y="7200900"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -1013,135 +1002,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>88447</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>88447</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB8D860-5724-4533-B471-67CFCABD82E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="32" idx="4"/>
-          <a:endCxn id="28" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8980714" y="5218340"/>
-          <a:ext cx="1020536" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>88447</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>88447</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{473DDA13-458A-4E4E-B7EC-4549520ABD81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="4"/>
-          <a:endCxn id="32" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6939643" y="5218340"/>
-          <a:ext cx="1020536" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="フローチャート: 磁気ディスク 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{750EE521-19A8-43A8-917C-A614F136BF3B}"/>
+        <xdr:cNvPr id="41" name="フローチャート: 磁気ディスク 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C395A6-E899-4131-889B-7FBF88B81965}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1149,7 +1026,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5510893" y="2122714"/>
+          <a:off x="11634107" y="9729107"/>
           <a:ext cx="1020536" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -1186,41 +1063,99 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>88447</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>88447</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>102054</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>102054</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8421F3CF-C450-4C0C-BA0F-CAA036726040}"/>
+        <xdr:cNvPr id="59" name="直線コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91CE7C47-2626-4BF7-9BF4-F8ADF66D42DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="68" idx="2"/>
-          <a:endCxn id="73" idx="3"/>
+          <a:stCxn id="32" idx="3"/>
+          <a:endCxn id="18" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="1945821"/>
+          <a:ext cx="0" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F00C9002-DE8D-41A3-AD37-A602F88A0214}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="41" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2857500" y="5925911"/>
-          <a:ext cx="1020536" cy="0"/>
+          <a:off x="4082143" y="619125"/>
+          <a:ext cx="1836964" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1242,23 +1177,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="フローチャート: 磁気ディスク 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4A2EF6-4B57-4FCC-ADCF-94EAE234911E}"/>
+        <xdr:cNvPr id="29" name="フローチャート: 磁気ディスク 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41EF4C4-BE58-4209-8117-D0E31E8E1A60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1266,8 +1201,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8164286" y="2122714"/>
-          <a:ext cx="1020535" cy="530679"/>
+          <a:off x="5919107" y="1415143"/>
+          <a:ext cx="1020536" cy="530678"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -1303,135 +1238,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>88447</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>88447</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBAF3516-1A87-4A92-A621-A1411A2CC004}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="27" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6531429" y="972911"/>
-          <a:ext cx="1632857" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>88447</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>88447</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7A0BB8-AA1E-4DDE-BDCC-605A77783EC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="4"/>
-          <a:endCxn id="17" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6939643" y="5218340"/>
-          <a:ext cx="1020536" cy="707571"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="フローチャート: 磁気ディスク 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF96567-D054-49D6-B331-28E4AEC0F82B}"/>
+        <xdr:cNvPr id="33" name="フローチャート: 磁気ディスク 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148C24D3-1D66-4047-8160-69E2D679AF83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,8 +1262,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3000375" y="685800"/>
-          <a:ext cx="1000125" cy="514350"/>
+          <a:off x="5919107" y="2476500"/>
+          <a:ext cx="1020536" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -1476,35 +1299,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A07C4D-046F-4A45-AC0A-815F79095DBB}"/>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1733B107-A6C8-4699-8860-036AFA8DA9F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="61" idx="3"/>
-          <a:endCxn id="59" idx="2"/>
+          <a:stCxn id="32" idx="4"/>
+          <a:endCxn id="33" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1800225" y="4371975"/>
-          <a:ext cx="1600200" cy="0"/>
+          <a:off x="4082143" y="3803197"/>
+          <a:ext cx="4286250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1532,23 +1355,135 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>102054</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="コネクタ: カギ線 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8720ACFD-5701-407F-A89A-FC701B868854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="1"/>
+          <a:endCxn id="29" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="6449786" y="1108982"/>
+          <a:ext cx="2918732" cy="1939018"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>102055</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="コネクタ: カギ線 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D634F2F-EA11-4936-93D4-5A5E672C25F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="13" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7511143" y="1374321"/>
+          <a:ext cx="796019" cy="1939018"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="フローチャート: 表示 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19123BC1-250C-4D3C-9E69-03BB58B4C0B7}"/>
+        <xdr:cNvPr id="47" name="フローチャート: 表示 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C26C4D-F388-4030-AB29-47378D36CBBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1556,7 +1491,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1836964" y="4245429"/>
+          <a:off x="408214" y="1415143"/>
           <a:ext cx="1020536" cy="530678"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
@@ -1593,23 +1528,84 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABED219-30C9-42E9-9BB3-8F0E5634EAE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="3"/>
+          <a:endCxn id="41" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="619125"/>
+          <a:ext cx="1632857" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="フローチャート: 磁気ディスク 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05650D59-41D8-47E1-8643-3AD154A6FC18}"/>
+        <xdr:cNvPr id="7" name="フローチャート: 磁気ディスク 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B08153B-F37B-4DDF-AD0C-747D6038D625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,8 +1613,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3878036" y="4068536"/>
-          <a:ext cx="1020535" cy="530678"/>
+          <a:off x="8096250" y="2000250"/>
+          <a:ext cx="1012031" cy="500063"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -1654,23 +1650,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="フローチャート: 表示 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{662700F7-DC29-4CB6-BCE8-DA01111C940F}"/>
+        <xdr:cNvPr id="32" name="フローチャート: 磁気ディスク 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310054A3-2763-4693-B39C-1157EA486010}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1678,10 +1674,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="600075" y="6172200"/>
-          <a:ext cx="1000125" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDisplay">
+          <a:off x="8096250" y="3500438"/>
+          <a:ext cx="1012031" cy="500062"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -1715,35 +1711,92 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>160565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>102053</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38EE0D4B-EC42-44E8-AE90-801746685461}"/>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A26FCF-376A-4B12-A5BC-8046CAD8240E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="47" idx="0"/>
-          <a:endCxn id="52" idx="2"/>
+          <a:stCxn id="27" idx="4"/>
+          <a:endCxn id="31" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3978049" y="5821136"/>
-          <a:ext cx="2040" cy="1608364"/>
+        <a:xfrm>
+          <a:off x="8980714" y="4510768"/>
+          <a:ext cx="1020536" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7F01839-9C3C-4856-B491-C43B97974DE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="4"/>
+          <a:endCxn id="62" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="4371975"/>
+          <a:ext cx="609600" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1769,73 +1822,25 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="590550" cy="514350"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="グラフィックス 44" descr="レンチ">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43C211D-6917-4A97-B08F-E0E9F3CC05A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2809875" y="5143500"/>
-          <a:ext cx="590550" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="フローチャート: 表示 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87DFD047-A8F3-44E4-AE16-73F4703FCDD0}"/>
+        <xdr:cNvPr id="17" name="フローチャート: 磁気ディスク 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B1A97A-24DE-40D9-AF1F-DEE06912D414}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1843,10 +1848,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="4114800"/>
-          <a:ext cx="1000125" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDisplay">
+          <a:off x="9513094" y="2000250"/>
+          <a:ext cx="1012031" cy="500063"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -1880,23 +1885,135 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76BEA06-A356-4472-81AE-C594F7238B83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="3"/>
+          <a:endCxn id="45" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="5400675"/>
+          <a:ext cx="1009650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E888053-7B4E-4270-AD69-874281D15D14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="4"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6939643" y="4510768"/>
+          <a:ext cx="1020536" cy="707572"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="フローチャート: 表示 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F571EEB9-AD01-416D-B441-D502BC5FD01F}"/>
+        <xdr:cNvPr id="28" name="四角形: メモ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC758B2D-90FF-4E26-AC6F-DCFD57E77D6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,10 +2021,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="5143500"/>
-          <a:ext cx="1000125" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDisplay">
+          <a:off x="8298656" y="2000250"/>
+          <a:ext cx="1012032" cy="500063"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -1939,290 +2056,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="589189" cy="514350"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="グラフィックス 51" descr="レンチ">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70542C57-198C-4E73-8F06-1A5B9224C3CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3683454" y="5306786"/>
-          <a:ext cx="589189" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="581025" cy="514350"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="グラフィックス 61" descr="レンチ">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D13BF984-0CA1-494B-B31D-89A62910F708}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2409825" y="4114800"/>
-          <a:ext cx="581025" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直線コネクタ 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D78B98-6E07-4993-A1F0-A150EDBBD867}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="62" idx="3"/>
-          <a:endCxn id="7" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5591175" y="4371975"/>
-          <a:ext cx="609600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="oval" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線コネクタ 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9681797-7D35-44EF-8ACC-1420671D5DD7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="62" idx="0"/>
-          <a:endCxn id="27" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5300663" y="3600450"/>
-          <a:ext cx="0" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="lgDash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>102053</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>160565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>95931</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A42ABF4-5714-463B-84CC-1BDC0A3A2D6B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="44" idx="1"/>
-          <a:endCxn id="62" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6837589" y="4759779"/>
-          <a:ext cx="1422628" cy="2669721"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="フローチャート: 磁気ディスク 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D1D2975-DEB8-427A-A658-82F331CAAEA6}"/>
+        <xdr:cNvPr id="30" name="四角形: メモ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000ABFFE-B1E2-48BE-B588-3A575063BFF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,10 +2082,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3469821" y="7783286"/>
-          <a:ext cx="1020536" cy="530678"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:off x="10929938" y="2000250"/>
+          <a:ext cx="1012031" cy="500063"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -2265,85 +2117,37 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="590550" cy="514350"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="グラフィックス 41" descr="レンチ">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A662A54A-2118-469E-82EC-73A5FEF21D30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2458811" y="5306786"/>
-          <a:ext cx="590550" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>100693</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>102054</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07508302-FBA0-40B5-BF5D-B8BE89140064}"/>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB8D860-5724-4533-B471-67CFCABD82E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="2"/>
-          <a:endCxn id="42" idx="0"/>
+          <a:stCxn id="32" idx="4"/>
+          <a:endCxn id="28" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1325336" y="5837464"/>
-          <a:ext cx="1361" cy="530679"/>
+        <a:xfrm>
+          <a:off x="8980714" y="5218340"/>
+          <a:ext cx="1020536" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2371,92 +2175,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>100693</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>160564</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>102054</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線コネクタ 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8063186F-6458-4024-831B-B93EBD1C183A}"/>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{473DDA13-458A-4E4E-B7EC-4549520ABD81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="42" idx="2"/>
-          <a:endCxn id="40" idx="1"/>
+          <a:stCxn id="7" idx="4"/>
+          <a:endCxn id="32" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1325336" y="6882493"/>
-          <a:ext cx="1361" cy="547007"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="oval" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>88447</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>88447</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2001DB-C68F-46E6-910C-CC7D136B8E76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="44" idx="2"/>
-          <a:endCxn id="40" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4694464" y="7694840"/>
-          <a:ext cx="1632857" cy="0"/>
+          <a:off x="6939643" y="5218340"/>
+          <a:ext cx="1020536" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2482,73 +2229,25 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="590550" cy="514350"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="グラフィックス 36" descr="レンチ">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1097ED8F-60B4-42CC-974F-BBBF2C3641F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3887561" y="6368143"/>
-          <a:ext cx="590550" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="フローチャート: 磁気ディスク 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB04ED4F-A103-4C29-B64C-421DFDD33A1E}"/>
+        <xdr:cNvPr id="27" name="フローチャート: 磁気ディスク 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{750EE521-19A8-43A8-917C-A614F136BF3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,8 +2255,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3673929" y="7429500"/>
-          <a:ext cx="1020535" cy="530679"/>
+          <a:off x="5510893" y="2122714"/>
+          <a:ext cx="1020536" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -2593,6 +2292,1413 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8421F3CF-C450-4C0C-BA0F-CAA036726040}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="2"/>
+          <a:endCxn id="73" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2857500" y="5925911"/>
+          <a:ext cx="1020536" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="フローチャート: 磁気ディスク 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4A2EF6-4B57-4FCC-ADCF-94EAE234911E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8164286" y="2122714"/>
+          <a:ext cx="1020535" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBAF3516-1A87-4A92-A621-A1411A2CC004}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6531429" y="972911"/>
+          <a:ext cx="1632857" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7A0BB8-AA1E-4DDE-BDCC-605A77783EC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="4"/>
+          <a:endCxn id="17" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6939643" y="5218340"/>
+          <a:ext cx="1020536" cy="707571"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="フローチャート: 磁気ディスク 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF96567-D054-49D6-B331-28E4AEC0F82B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000375" y="685800"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A07C4D-046F-4A45-AC0A-815F79095DBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="3"/>
+          <a:endCxn id="59" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="4371975"/>
+          <a:ext cx="1600200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="フローチャート: 表示 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19123BC1-250C-4D3C-9E69-03BB58B4C0B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1836964" y="4245429"/>
+          <a:ext cx="1020536" cy="530678"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="フローチャート: 磁気ディスク 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05650D59-41D8-47E1-8643-3AD154A6FC18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3878036" y="4068536"/>
+          <a:ext cx="1020535" cy="530678"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="フローチャート: 表示 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{662700F7-DC29-4CB6-BCE8-DA01111C940F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="6172200"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>160565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>102053</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38EE0D4B-EC42-44E8-AE90-801746685461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="0"/>
+          <a:endCxn id="52" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3978049" y="5821136"/>
+          <a:ext cx="2040" cy="1608364"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="590550" cy="514350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="グラフィックス 44" descr="レンチ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43C211D-6917-4A97-B08F-E0E9F3CC05A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809875" y="5143500"/>
+          <a:ext cx="590550" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="フローチャート: 表示 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87DFD047-A8F3-44E4-AE16-73F4703FCDD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="4114800"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="フローチャート: 表示 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F571EEB9-AD01-416D-B441-D502BC5FD01F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="5143500"/>
+          <a:ext cx="1000125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="589189" cy="514350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="グラフィックス 51" descr="レンチ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70542C57-198C-4E73-8F06-1A5B9224C3CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683454" y="5306786"/>
+          <a:ext cx="589189" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="581025" cy="514350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="グラフィックス 61" descr="レンチ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D13BF984-0CA1-494B-B31D-89A62910F708}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409825" y="4114800"/>
+          <a:ext cx="581025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D78B98-6E07-4993-A1F0-A150EDBBD867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="3"/>
+          <a:endCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="4371975"/>
+          <a:ext cx="609600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9681797-7D35-44EF-8ACC-1420671D5DD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="0"/>
+          <a:endCxn id="27" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5300663" y="3600450"/>
+          <a:ext cx="0" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>102053</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>95931</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A42ABF4-5714-463B-84CC-1BDC0A3A2D6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="1"/>
+          <a:endCxn id="62" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6837589" y="4759779"/>
+          <a:ext cx="1422628" cy="2669721"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="フローチャート: 磁気ディスク 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D1D2975-DEB8-427A-A658-82F331CAAEA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3469821" y="7783286"/>
+          <a:ext cx="1020536" cy="530678"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="590550" cy="514350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="グラフィックス 41" descr="レンチ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A662A54A-2118-469E-82EC-73A5FEF21D30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2458811" y="5306786"/>
+          <a:ext cx="590550" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>100693</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>102054</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07508302-FBA0-40B5-BF5D-B8BE89140064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="2"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1325336" y="5837464"/>
+          <a:ext cx="1361" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>100693</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>102054</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8063186F-6458-4024-831B-B93EBD1C183A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="40" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1325336" y="6882493"/>
+          <a:ext cx="1361" cy="547007"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2001DB-C68F-46E6-910C-CC7D136B8E76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="2"/>
+          <a:endCxn id="40" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4694464" y="7694840"/>
+          <a:ext cx="1632857" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="590550" cy="514350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="グラフィックス 36" descr="レンチ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1097ED8F-60B4-42CC-974F-BBBF2C3641F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3887561" y="6368143"/>
+          <a:ext cx="590550" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="フローチャート: 磁気ディスク 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB04ED4F-A103-4C29-B64C-421DFDD33A1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3673929" y="7429500"/>
+          <a:ext cx="1020535" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>100693</xdr:colOff>
       <xdr:row>50</xdr:row>
@@ -2707,7 +3813,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4732,11 +5838,568 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C26FA02-27D1-4336-ADC2-9BEE2E3B7E96}">
+  <dimension ref="A6:BC21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BO17" sqref="BO17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="8" width="2.625" style="1"/>
+    <col min="9" max="13" width="2.625" style="1" customWidth="1"/>
+    <col min="14" max="43" width="2.625" style="1"/>
+    <col min="44" max="16384" width="2.625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:55">
+      <c r="AX6" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55">
+      <c r="C7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="K7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="Y7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AK7" s="3"/>
+      <c r="AY7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+    </row>
+    <row r="9" spans="1:55" ht="13.5" customHeight="1">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AK9" s="3"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
+    </row>
+    <row r="10" spans="1:55" s="12" customFormat="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AS10" s="18"/>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AW10" s="18"/>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="18"/>
+      <c r="BC10" s="18"/>
+    </row>
+    <row r="11" spans="1:55" s="12" customFormat="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AS11" s="18"/>
+      <c r="AT11" s="18"/>
+      <c r="AU11" s="18"/>
+      <c r="AV11" s="18"/>
+      <c r="AW11" s="18"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="18"/>
+      <c r="BC11" s="18"/>
+    </row>
+    <row r="12" spans="1:55" s="12" customFormat="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AS12" s="18"/>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="18"/>
+      <c r="AV12" s="18"/>
+      <c r="AW12" s="18"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="18"/>
+      <c r="BC12" s="18"/>
+    </row>
+    <row r="13" spans="1:55" s="12" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ13" s="21"/>
+      <c r="AR13" s="21"/>
+      <c r="AS13" s="21"/>
+      <c r="AT13" s="21"/>
+      <c r="AU13" s="18"/>
+      <c r="AV13" s="18"/>
+      <c r="AW13" s="18"/>
+    </row>
+    <row r="14" spans="1:55" s="12" customFormat="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="21"/>
+      <c r="AU14" s="18"/>
+      <c r="AV14" s="18"/>
+      <c r="AW14" s="18"/>
+    </row>
+    <row r="15" spans="1:55" s="12" customFormat="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="21"/>
+      <c r="AR15" s="21"/>
+      <c r="AS15" s="21"/>
+      <c r="AT15" s="21"/>
+      <c r="AU15" s="18"/>
+      <c r="AV15" s="18"/>
+      <c r="AW15" s="18"/>
+    </row>
+    <row r="16" spans="1:55" s="12" customFormat="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+    </row>
+    <row r="17" spans="3:34">
+      <c r="S17" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="3:34">
+      <c r="C19" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
+    </row>
+    <row r="20" spans="3:34">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="Y20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+    </row>
+    <row r="21" spans="3:34">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="AD7:AH9"/>
+    <mergeCell ref="AP13:AT15"/>
+    <mergeCell ref="C7:G9"/>
+    <mergeCell ref="P7:T9"/>
+    <mergeCell ref="P13:T15"/>
+    <mergeCell ref="AD19:AH21"/>
+    <mergeCell ref="C19:G21"/>
+    <mergeCell ref="P19:T21"/>
+    <mergeCell ref="C13:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="S3:CX60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH51" sqref="AH51"/>
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH49" sqref="AH49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -4804,30 +6467,30 @@
       </c>
     </row>
     <row r="19" spans="19:102">
-      <c r="AM19" s="19" t="s">
+      <c r="AM19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AN19" s="19"/>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="19"/>
-      <c r="AQ19" s="19"/>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="21"/>
+      <c r="AP19" s="21"/>
+      <c r="AQ19" s="21"/>
     </row>
     <row r="20" spans="19:102">
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="19"/>
-      <c r="AQ20" s="19"/>
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="21"/>
+      <c r="AO20" s="21"/>
+      <c r="AP20" s="21"/>
+      <c r="AQ20" s="21"/>
       <c r="BZ20" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="19:102" ht="13.5" customHeight="1">
-      <c r="AM21" s="19"/>
-      <c r="AN21" s="19"/>
-      <c r="AO21" s="19"/>
-      <c r="AP21" s="19"/>
-      <c r="AQ21" s="19"/>
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="21"/>
+      <c r="AP21" s="21"/>
+      <c r="AQ21" s="21"/>
       <c r="CT21" s="7"/>
       <c r="CU21" s="7"/>
       <c r="CV21" s="7"/>
@@ -4907,23 +6570,23 @@
       <c r="AC25" s="14"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
-      <c r="AF25" s="16" t="s">
+      <c r="AF25" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AG25" s="16"/>
-      <c r="AH25" s="16"/>
-      <c r="AI25" s="16"/>
-      <c r="AJ25" s="16"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="19"/>
       <c r="AN25" s="14"/>
       <c r="AO25" s="14"/>
       <c r="AP25" s="14"/>
-      <c r="AT25" s="19" t="s">
+      <c r="AT25" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AU25" s="19"/>
-      <c r="AV25" s="19"/>
-      <c r="AW25" s="19"/>
-      <c r="AX25" s="19"/>
+      <c r="AU25" s="21"/>
+      <c r="AV25" s="21"/>
+      <c r="AW25" s="21"/>
+      <c r="AX25" s="21"/>
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
       <c r="BE25" s="3"/>
@@ -4934,13 +6597,13 @@
       <c r="BO25" s="3"/>
       <c r="BP25" s="3"/>
       <c r="BQ25" s="3"/>
-      <c r="BR25" s="18" t="s">
+      <c r="BR25" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="BS25" s="18"/>
-      <c r="BT25" s="18"/>
-      <c r="BU25" s="18"/>
-      <c r="BV25" s="18"/>
+      <c r="BS25" s="22"/>
+      <c r="BT25" s="22"/>
+      <c r="BU25" s="22"/>
+      <c r="BV25" s="22"/>
       <c r="BW25" s="3"/>
       <c r="BX25" s="3"/>
       <c r="BY25" s="3"/>
@@ -4965,19 +6628,19 @@
       <c r="AC26" s="14"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
-      <c r="AF26" s="16"/>
-      <c r="AG26" s="16"/>
-      <c r="AH26" s="16"/>
-      <c r="AI26" s="16"/>
-      <c r="AJ26" s="16"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
       <c r="AN26" s="14"/>
       <c r="AO26" s="14"/>
       <c r="AP26" s="14"/>
-      <c r="AT26" s="19"/>
-      <c r="AU26" s="19"/>
-      <c r="AV26" s="19"/>
-      <c r="AW26" s="19"/>
-      <c r="AX26" s="19"/>
+      <c r="AT26" s="21"/>
+      <c r="AU26" s="21"/>
+      <c r="AV26" s="21"/>
+      <c r="AW26" s="21"/>
+      <c r="AX26" s="21"/>
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
       <c r="BE26" s="3"/>
@@ -4988,11 +6651,11 @@
       <c r="BO26" s="3"/>
       <c r="BP26" s="3"/>
       <c r="BQ26" s="3"/>
-      <c r="BR26" s="18"/>
-      <c r="BS26" s="18"/>
-      <c r="BT26" s="18"/>
-      <c r="BU26" s="18"/>
-      <c r="BV26" s="18"/>
+      <c r="BR26" s="22"/>
+      <c r="BS26" s="22"/>
+      <c r="BT26" s="22"/>
+      <c r="BU26" s="22"/>
+      <c r="BV26" s="22"/>
       <c r="BW26" s="3"/>
       <c r="BX26" s="3"/>
       <c r="BY26" s="3"/>
@@ -5015,21 +6678,21 @@
       <c r="AA27" s="14"/>
       <c r="AB27" s="14"/>
       <c r="AC27" s="14"/>
-      <c r="AF27" s="16"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="16"/>
-      <c r="AJ27" s="16"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
       <c r="AN27" s="14"/>
       <c r="AO27" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AP27" s="14"/>
-      <c r="AT27" s="19"/>
-      <c r="AU27" s="19"/>
-      <c r="AV27" s="19"/>
-      <c r="AW27" s="19"/>
-      <c r="AX27" s="19"/>
+      <c r="AT27" s="21"/>
+      <c r="AU27" s="21"/>
+      <c r="AV27" s="21"/>
+      <c r="AW27" s="21"/>
+      <c r="AX27" s="21"/>
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
       <c r="BE27" s="3"/>
@@ -5040,11 +6703,11 @@
       <c r="BO27" s="3"/>
       <c r="BP27" s="3"/>
       <c r="BQ27" s="3"/>
-      <c r="BR27" s="18"/>
-      <c r="BS27" s="18"/>
-      <c r="BT27" s="18"/>
-      <c r="BU27" s="18"/>
-      <c r="BV27" s="18"/>
+      <c r="BR27" s="22"/>
+      <c r="BS27" s="22"/>
+      <c r="BT27" s="22"/>
+      <c r="BU27" s="22"/>
+      <c r="BV27" s="22"/>
       <c r="BW27" s="3"/>
       <c r="BX27" s="3"/>
       <c r="BY27" s="3"/>
@@ -5062,32 +6725,32 @@
       <c r="AO28" s="1"/>
     </row>
     <row r="29" spans="19:102">
-      <c r="BH29" s="19" t="s">
+      <c r="BH29" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="BI29" s="19"/>
-      <c r="BJ29" s="19"/>
-      <c r="BK29" s="19"/>
-      <c r="BL29" s="19"/>
-      <c r="BR29" s="18" t="s">
+      <c r="BI29" s="21"/>
+      <c r="BJ29" s="21"/>
+      <c r="BK29" s="21"/>
+      <c r="BL29" s="21"/>
+      <c r="BR29" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="BS29" s="18"/>
-      <c r="BT29" s="18"/>
-      <c r="BU29" s="18"/>
-      <c r="BV29" s="18"/>
+      <c r="BS29" s="22"/>
+      <c r="BT29" s="22"/>
+      <c r="BU29" s="22"/>
+      <c r="BV29" s="22"/>
     </row>
     <row r="30" spans="19:102">
-      <c r="BH30" s="19"/>
-      <c r="BI30" s="19"/>
-      <c r="BJ30" s="19"/>
-      <c r="BK30" s="19"/>
-      <c r="BL30" s="19"/>
-      <c r="BR30" s="18"/>
-      <c r="BS30" s="18"/>
-      <c r="BT30" s="18"/>
-      <c r="BU30" s="18"/>
-      <c r="BV30" s="18"/>
+      <c r="BH30" s="21"/>
+      <c r="BI30" s="21"/>
+      <c r="BJ30" s="21"/>
+      <c r="BK30" s="21"/>
+      <c r="BL30" s="21"/>
+      <c r="BR30" s="22"/>
+      <c r="BS30" s="22"/>
+      <c r="BT30" s="22"/>
+      <c r="BU30" s="22"/>
+      <c r="BV30" s="22"/>
     </row>
     <row r="31" spans="19:102">
       <c r="S31" s="20" t="s">
@@ -5097,16 +6760,16 @@
       <c r="U31" s="20"/>
       <c r="V31" s="20"/>
       <c r="W31" s="20"/>
-      <c r="BH31" s="19"/>
-      <c r="BI31" s="19"/>
-      <c r="BJ31" s="19"/>
-      <c r="BK31" s="19"/>
-      <c r="BL31" s="19"/>
-      <c r="BR31" s="18"/>
-      <c r="BS31" s="18"/>
-      <c r="BT31" s="18"/>
-      <c r="BU31" s="18"/>
-      <c r="BV31" s="18"/>
+      <c r="BH31" s="21"/>
+      <c r="BI31" s="21"/>
+      <c r="BJ31" s="21"/>
+      <c r="BK31" s="21"/>
+      <c r="BL31" s="21"/>
+      <c r="BR31" s="22"/>
+      <c r="BS31" s="22"/>
+      <c r="BT31" s="22"/>
+      <c r="BU31" s="22"/>
+      <c r="BV31" s="22"/>
     </row>
     <row r="32" spans="19:102">
       <c r="S32" s="20"/>
@@ -5124,94 +6787,94 @@
       <c r="U33" s="20"/>
       <c r="V33" s="20"/>
       <c r="W33" s="20"/>
-      <c r="BH33" s="19" t="s">
+      <c r="BH33" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="BI33" s="19"/>
-      <c r="BJ33" s="19"/>
-      <c r="BK33" s="19"/>
-      <c r="BL33" s="19"/>
+      <c r="BI33" s="21"/>
+      <c r="BJ33" s="21"/>
+      <c r="BK33" s="21"/>
+      <c r="BL33" s="21"/>
     </row>
     <row r="34" spans="19:76">
       <c r="AY34" s="9"/>
-      <c r="BH34" s="19"/>
-      <c r="BI34" s="19"/>
-      <c r="BJ34" s="19"/>
-      <c r="BK34" s="19"/>
-      <c r="BL34" s="19"/>
+      <c r="BH34" s="21"/>
+      <c r="BI34" s="21"/>
+      <c r="BJ34" s="21"/>
+      <c r="BK34" s="21"/>
+      <c r="BL34" s="21"/>
     </row>
     <row r="35" spans="19:76">
-      <c r="BH35" s="19"/>
-      <c r="BI35" s="19"/>
-      <c r="BJ35" s="19"/>
-      <c r="BK35" s="19"/>
-      <c r="BL35" s="19"/>
+      <c r="BH35" s="21"/>
+      <c r="BI35" s="21"/>
+      <c r="BJ35" s="21"/>
+      <c r="BK35" s="21"/>
+      <c r="BL35" s="21"/>
     </row>
     <row r="37" spans="19:76" ht="13.5" customHeight="1">
-      <c r="BT37" s="18" t="s">
+      <c r="BT37" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="BU37" s="18"/>
-      <c r="BV37" s="18"/>
-      <c r="BW37" s="18"/>
-      <c r="BX37" s="18"/>
+      <c r="BU37" s="22"/>
+      <c r="BV37" s="22"/>
+      <c r="BW37" s="22"/>
+      <c r="BX37" s="22"/>
     </row>
     <row r="38" spans="19:76">
-      <c r="BT38" s="18"/>
-      <c r="BU38" s="18"/>
-      <c r="BV38" s="18"/>
-      <c r="BW38" s="18"/>
-      <c r="BX38" s="18"/>
+      <c r="BT38" s="22"/>
+      <c r="BU38" s="22"/>
+      <c r="BV38" s="22"/>
+      <c r="BW38" s="22"/>
+      <c r="BX38" s="22"/>
     </row>
     <row r="39" spans="19:76">
       <c r="U39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BT39" s="18"/>
-      <c r="BU39" s="18"/>
-      <c r="BV39" s="18"/>
-      <c r="BW39" s="18"/>
-      <c r="BX39" s="18"/>
+      <c r="BT39" s="22"/>
+      <c r="BU39" s="22"/>
+      <c r="BV39" s="22"/>
+      <c r="BW39" s="22"/>
+      <c r="BX39" s="22"/>
     </row>
     <row r="43" spans="19:76">
-      <c r="S43" s="16" t="s">
+      <c r="S43" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="AF43" s="16" t="s">
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="AF43" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AG43" s="16"/>
-      <c r="AH43" s="16"/>
-      <c r="AI43" s="16"/>
-      <c r="AJ43" s="16"/>
+      <c r="AG43" s="19"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="19"/>
+      <c r="AJ43" s="19"/>
     </row>
     <row r="44" spans="19:76">
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="16"/>
-      <c r="AF44" s="16"/>
-      <c r="AG44" s="16"/>
-      <c r="AH44" s="16"/>
-      <c r="AI44" s="16"/>
-      <c r="AJ44" s="16"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="AF44" s="19"/>
+      <c r="AG44" s="19"/>
+      <c r="AH44" s="19"/>
+      <c r="AI44" s="19"/>
+      <c r="AJ44" s="19"/>
     </row>
     <row r="45" spans="19:76">
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="AF45" s="16"/>
-      <c r="AG45" s="16"/>
-      <c r="AH45" s="16"/>
-      <c r="AI45" s="16"/>
-      <c r="AJ45" s="16"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="AF45" s="19"/>
+      <c r="AG45" s="19"/>
+      <c r="AH45" s="19"/>
+      <c r="AI45" s="19"/>
+      <c r="AJ45" s="19"/>
     </row>
     <row r="51" spans="32:63">
       <c r="AH51" s="1" t="s">
@@ -5305,23 +6968,23 @@
       <c r="AJ56" s="20"/>
       <c r="AV56" s="14"/>
       <c r="AW56" s="14"/>
-      <c r="AX56" s="17" t="s">
+      <c r="AX56" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AY56" s="17"/>
-      <c r="AZ56" s="17"/>
+      <c r="AY56" s="23"/>
+      <c r="AZ56" s="23"/>
       <c r="BA56" s="14"/>
       <c r="BB56" s="14"/>
       <c r="BC56" s="14"/>
       <c r="BD56" s="14"/>
       <c r="BE56" s="14"/>
-      <c r="BF56" s="16" t="s">
+      <c r="BF56" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="BG56" s="16"/>
-      <c r="BH56" s="16"/>
-      <c r="BI56" s="16"/>
-      <c r="BJ56" s="16"/>
+      <c r="BG56" s="19"/>
+      <c r="BH56" s="19"/>
+      <c r="BI56" s="19"/>
+      <c r="BJ56" s="19"/>
       <c r="BK56" s="14"/>
     </row>
     <row r="57" spans="32:63">
@@ -5332,37 +6995,37 @@
       <c r="AJ57" s="20"/>
       <c r="AV57" s="14"/>
       <c r="AW57" s="14"/>
-      <c r="AX57" s="17"/>
-      <c r="AY57" s="17"/>
-      <c r="AZ57" s="17"/>
+      <c r="AX57" s="23"/>
+      <c r="AY57" s="23"/>
+      <c r="AZ57" s="23"/>
       <c r="BA57" s="14"/>
       <c r="BB57" s="14"/>
       <c r="BC57" s="14"/>
       <c r="BD57" s="14"/>
       <c r="BE57" s="14"/>
-      <c r="BF57" s="16"/>
-      <c r="BG57" s="16"/>
-      <c r="BH57" s="16"/>
-      <c r="BI57" s="16"/>
-      <c r="BJ57" s="16"/>
+      <c r="BF57" s="19"/>
+      <c r="BG57" s="19"/>
+      <c r="BH57" s="19"/>
+      <c r="BI57" s="19"/>
+      <c r="BJ57" s="19"/>
       <c r="BK57" s="14"/>
     </row>
     <row r="58" spans="32:63">
       <c r="AV58" s="14"/>
       <c r="AW58" s="14"/>
-      <c r="AX58" s="17"/>
-      <c r="AY58" s="17"/>
-      <c r="AZ58" s="17"/>
+      <c r="AX58" s="23"/>
+      <c r="AY58" s="23"/>
+      <c r="AZ58" s="23"/>
       <c r="BA58" s="14"/>
       <c r="BB58" s="14"/>
       <c r="BC58" s="14"/>
       <c r="BD58" s="14"/>
       <c r="BE58" s="14"/>
-      <c r="BF58" s="16"/>
-      <c r="BG58" s="16"/>
-      <c r="BH58" s="16"/>
-      <c r="BI58" s="16"/>
-      <c r="BJ58" s="16"/>
+      <c r="BF58" s="19"/>
+      <c r="BG58" s="19"/>
+      <c r="BH58" s="19"/>
+      <c r="BI58" s="19"/>
+      <c r="BJ58" s="19"/>
       <c r="BK58" s="14"/>
     </row>
     <row r="59" spans="32:63">
@@ -5403,21 +7066,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="S31:W33"/>
+    <mergeCell ref="BF56:BJ58"/>
+    <mergeCell ref="AX56:AZ58"/>
+    <mergeCell ref="BR29:BV31"/>
+    <mergeCell ref="AT25:AX27"/>
     <mergeCell ref="S43:W45"/>
     <mergeCell ref="AF43:AJ45"/>
     <mergeCell ref="S25:W27"/>
     <mergeCell ref="BH33:BL35"/>
     <mergeCell ref="BH29:BL31"/>
-    <mergeCell ref="BT37:BX39"/>
-    <mergeCell ref="AF25:AJ27"/>
-    <mergeCell ref="S31:W33"/>
-    <mergeCell ref="BF56:BJ58"/>
-    <mergeCell ref="AX56:AZ58"/>
-    <mergeCell ref="BR29:BV31"/>
-    <mergeCell ref="AT25:AX27"/>
     <mergeCell ref="AM19:AQ21"/>
     <mergeCell ref="BR25:BV27"/>
     <mergeCell ref="AF55:AJ57"/>
+    <mergeCell ref="BT37:BX39"/>
+    <mergeCell ref="AF25:AJ27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5426,7 +7089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D931F97A-3675-4594-AA50-E23AEDCE3352}">
   <dimension ref="A3:CG46"/>
   <sheetViews>
@@ -5458,13 +7121,13 @@
       <c r="L5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
     </row>
     <row r="6" spans="2:66">
       <c r="D6" s="20"/>
@@ -5472,11 +7135,11 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
     </row>
     <row r="7" spans="2:66">
       <c r="D7" s="20"/>
@@ -5484,11 +7147,11 @@
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8" spans="2:66">
       <c r="B8" s="5" t="s">
@@ -5527,26 +7190,26 @@
       <c r="L13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="16" t="s">
+      <c r="P13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
       <c r="AC13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AY13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="BC13" s="18" t="s">
+      <c r="BC13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="BD13" s="18"/>
-      <c r="BE13" s="18"/>
-      <c r="BF13" s="18"/>
-      <c r="BG13" s="18"/>
+      <c r="BD13" s="22"/>
+      <c r="BE13" s="22"/>
+      <c r="BF13" s="22"/>
+      <c r="BG13" s="22"/>
     </row>
     <row r="14" spans="2:66">
       <c r="D14" s="20"/>
@@ -5554,16 +7217,16 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="BC14" s="18"/>
-      <c r="BD14" s="18"/>
-      <c r="BE14" s="18"/>
-      <c r="BF14" s="18"/>
-      <c r="BG14" s="18"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="BC14" s="22"/>
+      <c r="BD14" s="22"/>
+      <c r="BE14" s="22"/>
+      <c r="BF14" s="22"/>
+      <c r="BG14" s="22"/>
     </row>
     <row r="15" spans="2:66">
       <c r="D15" s="20"/>
@@ -5574,19 +7237,19 @@
       <c r="L15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
       <c r="AY15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BC15" s="18"/>
-      <c r="BD15" s="18"/>
-      <c r="BE15" s="18"/>
-      <c r="BF15" s="18"/>
-      <c r="BG15" s="18"/>
+      <c r="BC15" s="22"/>
+      <c r="BD15" s="22"/>
+      <c r="BE15" s="22"/>
+      <c r="BF15" s="22"/>
+      <c r="BG15" s="22"/>
       <c r="BI15" s="8" t="s">
         <v>18</v>
       </c>
@@ -5615,40 +7278,40 @@
       </c>
     </row>
     <row r="21" spans="1:85" ht="13.5" customHeight="1">
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
       <c r="L21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P21" s="16" t="s">
+      <c r="P21" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
       <c r="AC21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AG21" s="19" t="s">
+      <c r="AG21" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="19"/>
-      <c r="BC21" s="18" t="s">
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="21"/>
+      <c r="BC21" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="BD21" s="18"/>
-      <c r="BE21" s="18"/>
-      <c r="BF21" s="18"/>
-      <c r="BG21" s="18"/>
+      <c r="BD21" s="22"/>
+      <c r="BE21" s="22"/>
+      <c r="BF21" s="22"/>
+      <c r="BG21" s="22"/>
       <c r="CC21" s="7"/>
       <c r="CD21" s="7"/>
       <c r="CE21" s="7"/>
@@ -5656,26 +7319,26 @@
       <c r="CG21" s="7"/>
     </row>
     <row r="22" spans="1:85">
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="19"/>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="19"/>
-      <c r="BC22" s="18"/>
-      <c r="BD22" s="18"/>
-      <c r="BE22" s="18"/>
-      <c r="BF22" s="18"/>
-      <c r="BG22" s="18"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
+      <c r="AJ22" s="21"/>
+      <c r="AK22" s="21"/>
+      <c r="BC22" s="22"/>
+      <c r="BD22" s="22"/>
+      <c r="BE22" s="22"/>
+      <c r="BF22" s="22"/>
+      <c r="BG22" s="22"/>
       <c r="CC22" s="7"/>
       <c r="CD22" s="7"/>
       <c r="CE22" s="7"/>
@@ -5683,29 +7346,29 @@
       <c r="CG22" s="7"/>
     </row>
     <row r="23" spans="1:85">
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
       <c r="L23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="19"/>
-      <c r="BC23" s="18"/>
-      <c r="BD23" s="18"/>
-      <c r="BE23" s="18"/>
-      <c r="BF23" s="18"/>
-      <c r="BG23" s="18"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="21"/>
+      <c r="BC23" s="22"/>
+      <c r="BD23" s="22"/>
+      <c r="BE23" s="22"/>
+      <c r="BF23" s="22"/>
+      <c r="BG23" s="22"/>
       <c r="CC23" s="7"/>
       <c r="CD23" s="7"/>
       <c r="CE23" s="7"/>
@@ -5730,13 +7393,13 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="19" t="s">
+      <c r="W24" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="4"/>
@@ -5795,11 +7458,11 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="4"/>
@@ -5858,11 +7521,11 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="4"/>
@@ -5977,27 +7640,27 @@
       <c r="CG27" s="7"/>
     </row>
     <row r="29" spans="1:85">
-      <c r="AG29" s="19" t="s">
+      <c r="AG29" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="19"/>
-      <c r="AJ29" s="19"/>
-      <c r="AK29" s="19"/>
+      <c r="AH29" s="21"/>
+      <c r="AI29" s="21"/>
+      <c r="AJ29" s="21"/>
+      <c r="AK29" s="21"/>
     </row>
     <row r="30" spans="1:85">
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="19"/>
-      <c r="AI30" s="19"/>
-      <c r="AJ30" s="19"/>
-      <c r="AK30" s="19"/>
+      <c r="AG30" s="21"/>
+      <c r="AH30" s="21"/>
+      <c r="AI30" s="21"/>
+      <c r="AJ30" s="21"/>
+      <c r="AK30" s="21"/>
     </row>
     <row r="31" spans="1:85">
-      <c r="AG31" s="19"/>
-      <c r="AH31" s="19"/>
-      <c r="AI31" s="19"/>
-      <c r="AJ31" s="19"/>
-      <c r="AK31" s="19"/>
+      <c r="AG31" s="21"/>
+      <c r="AH31" s="21"/>
+      <c r="AI31" s="21"/>
+      <c r="AJ31" s="21"/>
+      <c r="AK31" s="21"/>
     </row>
     <row r="33" spans="4:59">
       <c r="AC33" s="6" t="s">
@@ -6010,81 +7673,81 @@
       </c>
     </row>
     <row r="37" spans="4:59" ht="13.5" customHeight="1">
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
       <c r="L37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P37" s="16" t="s">
+      <c r="P37" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="AG37" s="19" t="s">
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="AG37" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AH37" s="19"/>
-      <c r="AI37" s="19"/>
-      <c r="AJ37" s="19"/>
-      <c r="AK37" s="19"/>
-      <c r="BC37" s="18" t="s">
+      <c r="AH37" s="21"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="21"/>
+      <c r="AK37" s="21"/>
+      <c r="BC37" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="BD37" s="18"/>
-      <c r="BE37" s="18"/>
-      <c r="BF37" s="18"/>
-      <c r="BG37" s="18"/>
+      <c r="BD37" s="22"/>
+      <c r="BE37" s="22"/>
+      <c r="BF37" s="22"/>
+      <c r="BG37" s="22"/>
     </row>
     <row r="38" spans="4:59">
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="AG38" s="19"/>
-      <c r="AH38" s="19"/>
-      <c r="AI38" s="19"/>
-      <c r="AJ38" s="19"/>
-      <c r="AK38" s="19"/>
-      <c r="BC38" s="18"/>
-      <c r="BD38" s="18"/>
-      <c r="BE38" s="18"/>
-      <c r="BF38" s="18"/>
-      <c r="BG38" s="18"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="AG38" s="21"/>
+      <c r="AH38" s="21"/>
+      <c r="AI38" s="21"/>
+      <c r="AJ38" s="21"/>
+      <c r="AK38" s="21"/>
+      <c r="BC38" s="22"/>
+      <c r="BD38" s="22"/>
+      <c r="BE38" s="22"/>
+      <c r="BF38" s="22"/>
+      <c r="BG38" s="22"/>
     </row>
     <row r="39" spans="4:59">
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="19"/>
-      <c r="AJ39" s="19"/>
-      <c r="AK39" s="19"/>
-      <c r="BC39" s="18"/>
-      <c r="BD39" s="18"/>
-      <c r="BE39" s="18"/>
-      <c r="BF39" s="18"/>
-      <c r="BG39" s="18"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="AG39" s="21"/>
+      <c r="AH39" s="21"/>
+      <c r="AI39" s="21"/>
+      <c r="AJ39" s="21"/>
+      <c r="AK39" s="21"/>
+      <c r="BC39" s="22"/>
+      <c r="BD39" s="22"/>
+      <c r="BE39" s="22"/>
+      <c r="BF39" s="22"/>
+      <c r="BG39" s="22"/>
     </row>
     <row r="46" spans="4:59">
       <c r="D46" s="5"/>
